--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/Examensarbete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3711A2D-8C47-CB48-93F5-73ED47578289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EFA12A-B89B-8244-AD31-43D99F178CC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>Features</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Database connection</t>
+  </si>
+  <si>
+    <t>Also incl learning to work with git om a mac</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -602,9 +608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,10 +792,6 @@
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
-      <c r="S11">
-        <f>M11-P11</f>
-        <v>24</v>
-      </c>
     </row>
     <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -812,10 +814,6 @@
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
-      <c r="S12">
-        <f t="shared" ref="S12:S23" si="0">M12-P12</f>
-        <v>16</v>
-      </c>
     </row>
     <row r="13" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
@@ -837,10 +835,6 @@
         <v>36</v>
       </c>
       <c r="Q13" s="6"/>
-      <c r="S13">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
     </row>
     <row r="14" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
@@ -861,10 +855,21 @@
       <c r="O14" t="s">
         <v>31</v>
       </c>
-      <c r="Q14" s="6"/>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>43839</v>
+      </c>
+      <c r="R14" t="s">
+        <v>35</v>
+      </c>
       <c r="S14">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" ref="S12:S23" si="0">M14-P14</f>
+        <v>12</v>
+      </c>
+      <c r="T14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -886,10 +891,15 @@
       <c r="O15" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="6"/>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -911,12 +921,8 @@
         <v>37</v>
       </c>
       <c r="Q16" s="6"/>
-      <c r="S16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="6:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F17" s="1" t="s">
         <v>38</v>
       </c>
@@ -929,7 +935,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>1</v>
       </c>
@@ -952,12 +958,8 @@
         <v>37</v>
       </c>
       <c r="Q18" s="6"/>
-      <c r="S18">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="6:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
         <v>40</v>
       </c>
@@ -977,12 +979,8 @@
         <v>31</v>
       </c>
       <c r="Q19" s="6"/>
-      <c r="S19">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="6:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>2</v>
       </c>
@@ -1005,12 +1003,8 @@
         <v>33</v>
       </c>
       <c r="Q20" s="6"/>
-      <c r="S20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
         <v>40</v>
       </c>
@@ -1030,12 +1024,8 @@
         <v>35</v>
       </c>
       <c r="Q21" s="6"/>
-      <c r="S21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="6:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>18</v>
       </c>
@@ -1055,12 +1045,8 @@
         <v>37</v>
       </c>
       <c r="Q22" s="6"/>
-      <c r="S22">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
         <v>42</v>
       </c>
@@ -1077,12 +1063,8 @@
         <v>31</v>
       </c>
       <c r="Q23" s="6"/>
-      <c r="S23">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
         <v>43</v>
       </c>
@@ -1102,12 +1084,8 @@
         <v>31</v>
       </c>
       <c r="Q24" s="6"/>
-      <c r="S24">
-        <f t="shared" ref="S24:S35" si="1">M24-P24</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
         <v>16</v>
       </c>
@@ -1124,12 +1102,8 @@
         <v>33</v>
       </c>
       <c r="Q25" s="6"/>
-      <c r="S25">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
         <v>40</v>
       </c>
@@ -1146,12 +1120,8 @@
         <v>35</v>
       </c>
       <c r="Q26" s="6"/>
-      <c r="S26">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
         <v>17</v>
       </c>
@@ -1168,12 +1138,8 @@
         <v>35</v>
       </c>
       <c r="Q27" s="6"/>
-      <c r="S27">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="6:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
         <v>44</v>
       </c>
@@ -1192,12 +1158,8 @@
       <c r="O28" t="s">
         <v>37</v>
       </c>
-      <c r="S28">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="6:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
         <v>46</v>
       </c>
@@ -1216,12 +1178,8 @@
       <c r="O29" t="s">
         <v>31</v>
       </c>
-      <c r="S29">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="6:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
         <v>3</v>
       </c>
@@ -1240,12 +1198,8 @@
       <c r="O30" t="s">
         <v>33</v>
       </c>
-      <c r="S30">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="6:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
         <v>19</v>
       </c>
@@ -1261,12 +1215,8 @@
       <c r="O31" t="s">
         <v>33</v>
       </c>
-      <c r="S31">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="6:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
         <v>40</v>
       </c>
@@ -1281,10 +1231,6 @@
       </c>
       <c r="O32" t="s">
         <v>35</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="1"/>
-        <v>8</v>
       </c>
     </row>
     <row r="33" spans="9:19" x14ac:dyDescent="0.2">
@@ -1306,10 +1252,6 @@
       <c r="O33" t="s">
         <v>31</v>
       </c>
-      <c r="S33">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
     </row>
     <row r="34" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
@@ -1327,10 +1269,6 @@
       <c r="O34" t="s">
         <v>36</v>
       </c>
-      <c r="S34">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
     </row>
     <row r="35" spans="9:19" x14ac:dyDescent="0.2">
       <c r="J35" t="s">
@@ -1347,10 +1285,6 @@
       </c>
       <c r="O35" t="s">
         <v>36</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="36" spans="9:19" x14ac:dyDescent="0.2">
@@ -1360,11 +1294,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="9:19" x14ac:dyDescent="0.2">
@@ -1380,11 +1314,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>35.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="9:19" x14ac:dyDescent="0.2">
@@ -1393,7 +1327,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>2.7210884353741496</v>
+        <v>5.4421768707482991</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/Examensarbete/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/Examensarbete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EFA12A-B89B-8244-AD31-43D99F178CC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5F2A45-267A-B74B-ADD5-0C50674E32F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -215,7 +215,7 @@
     <t>Also incl learning to work with git om a mac</t>
   </si>
   <si>
-    <t>Pending</t>
+    <t>2020-01-10 Pending</t>
   </si>
 </sst>
 </file>
@@ -609,8 +609,8 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,7 +865,7 @@
         <v>35</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S12:S23" si="0">M14-P14</f>
+        <f t="shared" ref="S14:S15" si="0">M14-P14</f>
         <v>12</v>
       </c>
       <c r="T14" t="s">
@@ -892,14 +892,14 @@
         <v>36</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>60</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -1294,11 +1294,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="9:19" x14ac:dyDescent="0.2">
@@ -1314,11 +1314,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="9:19" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>5.4421768707482991</v>
+        <v>8.1632653061224492</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/Examensarbete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5F2A45-267A-B74B-ADD5-0C50674E32F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D65D3D6-4B42-7049-B442-79C84188949B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>Features</t>
   </si>
@@ -215,7 +215,25 @@
     <t>Also incl learning to work with git om a mac</t>
   </si>
   <si>
-    <t>2020-01-10 Pending</t>
+    <t>2020-01-14 Pending</t>
+  </si>
+  <si>
+    <t>Added necessairy tasks</t>
+  </si>
+  <si>
+    <t>Rekapitulera vanilla js</t>
+  </si>
+  <si>
+    <t>Plus a buch of off office hours, problem making connection to db work</t>
+  </si>
+  <si>
+    <t>Sum added tasks</t>
+  </si>
+  <si>
+    <t>Tot ant tim</t>
+  </si>
+  <si>
+    <t>Tot act hours vs plan</t>
   </si>
 </sst>
 </file>
@@ -283,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -292,6 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,11 +625,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,14 +911,17 @@
         <v>36</v>
       </c>
       <c r="P15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>60</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="T15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -1233,7 +1255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" x14ac:dyDescent="0.2">
       <c r="I33" t="s">
         <v>49</v>
       </c>
@@ -1253,7 +1275,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
         <v>50</v>
       </c>
@@ -1270,7 +1292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" x14ac:dyDescent="0.2">
       <c r="J35" t="s">
         <v>51</v>
       </c>
@@ -1287,21 +1309,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" x14ac:dyDescent="0.2">
       <c r="M36">
         <f>SUM(M10:M35)</f>
         <v>294</v>
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="9:19" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="6:19" x14ac:dyDescent="0.2">
       <c r="L37" t="s">
         <v>28</v>
       </c>
@@ -1314,20 +1336,84 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="9:19" x14ac:dyDescent="0.2">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="38" spans="6:19" x14ac:dyDescent="0.2">
       <c r="O38" t="s">
         <v>27</v>
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>8.1632653061224492</v>
+        <v>10.204081632653061</v>
+      </c>
+    </row>
+    <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="F40" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>43844</v>
+      </c>
+      <c r="R41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="O42" t="s">
+        <v>64</v>
+      </c>
+      <c r="P42">
+        <f>SUM(P41)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="O43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P43">
+        <f>P42+P36</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="O44" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44">
+        <f>P43/8</f>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="45" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="O45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" s="8">
+        <f>P43/M36</f>
+        <v>0.11904761904761904</v>
+      </c>
+    </row>
+    <row r="46" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="O46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" s="8">
+        <f>P43/M36</f>
+        <v>0.11904761904761904</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/Examensarbete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D65D3D6-4B42-7049-B442-79C84188949B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5DFD72-3A99-BF45-A4C1-B682C3CC0C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -628,8 +628,8 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P46" sqref="P46"/>
+      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1362,13 +1362,13 @@
         <v>62</v>
       </c>
       <c r="P41">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q41" s="6">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="R41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="6:19" x14ac:dyDescent="0.2">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="P42">
         <f>SUM(P41)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="6:19" x14ac:dyDescent="0.2">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="P44">
         <f>P43/8</f>
-        <v>4.375</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/M36</f>
-        <v>0.11904761904761904</v>
+        <v>0.13945578231292516</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="P46" s="8">
         <f>P43/M36</f>
-        <v>0.11904761904761904</v>
+        <v>0.13945578231292516</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/Examensarbete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5DFD72-3A99-BF45-A4C1-B682C3CC0C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A4578C-B947-3940-861A-F570B5F90FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R42" sqref="R42"/>
+      <selection pane="bottomLeft" activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1362,10 +1362,10 @@
         <v>62</v>
       </c>
       <c r="P41">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q41" s="6">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="R41" t="s">
         <v>33</v>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="P42">
         <f>SUM(P41)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="6:19" x14ac:dyDescent="0.2">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="P44">
         <f>P43/8</f>
-        <v>5.125</v>
+        <v>5.375</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/M36</f>
-        <v>0.13945578231292516</v>
+        <v>0.14625850340136054</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="P46" s="8">
         <f>P43/M36</f>
-        <v>0.13945578231292516</v>
+        <v>0.14625850340136054</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/Examensarbete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A4578C-B947-3940-861A-F570B5F90FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C810A79-76A7-F045-9C01-26B2A094C442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>Features</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Tot act hours vs plan</t>
+  </si>
+  <si>
+    <t>2020-01-16 pending</t>
   </si>
 </sst>
 </file>
@@ -627,9 +630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1362,13 +1365,13 @@
         <v>62</v>
       </c>
       <c r="P41">
-        <v>13</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>43846</v>
+        <v>14</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="R41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="6:19" x14ac:dyDescent="0.2">
@@ -1377,7 +1380,7 @@
       </c>
       <c r="P42">
         <f>SUM(P41)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="6:19" x14ac:dyDescent="0.2">
@@ -1386,7 +1389,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1395,7 +1398,7 @@
       </c>
       <c r="P44">
         <f>P43/8</f>
-        <v>5.375</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1404,7 +1407,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/M36</f>
-        <v>0.14625850340136054</v>
+        <v>0.14965986394557823</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">
@@ -1413,7 +1416,7 @@
       </c>
       <c r="P46" s="8">
         <f>P43/M36</f>
-        <v>0.14625850340136054</v>
+        <v>0.14965986394557823</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/Examensarbete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C810A79-76A7-F045-9C01-26B2A094C442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689D372E-C362-A54C-AAAC-3EFD83D2D011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -632,7 +632,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42"/>
+      <selection pane="bottomLeft" activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1365,7 +1365,7 @@
         <v>62</v>
       </c>
       <c r="P41">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>67</v>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="P42">
         <f>SUM(P41)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="6:19" x14ac:dyDescent="0.2">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="P44">
         <f>P43/8</f>
-        <v>5.5</v>
+        <v>5.875</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/M36</f>
-        <v>0.14965986394557823</v>
+        <v>0.1598639455782313</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="P46" s="8">
         <f>P43/M36</f>
-        <v>0.14965986394557823</v>
+        <v>0.1598639455782313</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/Examensarbete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689D372E-C362-A54C-AAAC-3EFD83D2D011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C7EF1B-5664-4A44-9046-0F175EF98898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -236,7 +236,7 @@
     <t>Tot act hours vs plan</t>
   </si>
   <si>
-    <t>2020-01-16 pending</t>
+    <t>2020-01-17 pending</t>
   </si>
 </sst>
 </file>
@@ -630,9 +630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q41" sqref="Q41"/>
+      <selection pane="bottomLeft" activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1365,13 +1365,13 @@
         <v>62</v>
       </c>
       <c r="P41">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>67</v>
       </c>
       <c r="R41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="6:19" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="P42">
         <f>SUM(P41)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="6:19" x14ac:dyDescent="0.2">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="P44">
         <f>P43/8</f>
-        <v>5.875</v>
+        <v>6.125</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/M36</f>
-        <v>0.1598639455782313</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="P46" s="8">
         <f>P43/M36</f>
-        <v>0.1598639455782313</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/Examensarbete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C7EF1B-5664-4A44-9046-0F175EF98898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAE77A1-835E-9D47-8D76-C3D9CFF11723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
   <si>
     <t>Features</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>2020-01-17 pending</t>
+  </si>
+  <si>
+    <t>2020-01-17 Pending</t>
   </si>
 </sst>
 </file>
@@ -631,8 +634,8 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P41" sqref="P41"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -812,8 +815,19 @@
       <c r="O11" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6"/>
+      <c r="P11" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11">
+        <f>M11-P11</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -1319,11 +1333,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1339,11 +1353,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>3.75</v>
+        <v>4.125</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>2.25</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1352,7 +1366,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>10.204081632653061</v>
+        <v>11.224489795918368</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1389,7 +1403,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1398,7 +1412,7 @@
       </c>
       <c r="P44">
         <f>P43/8</f>
-        <v>6.125</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1407,7 +1421,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/M36</f>
-        <v>0.16666666666666666</v>
+        <v>0.17687074829931973</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">
@@ -1416,7 +1430,7 @@
       </c>
       <c r="P46" s="8">
         <f>P43/M36</f>
-        <v>0.16666666666666666</v>
+        <v>0.17687074829931973</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/Examensarbete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAE77A1-835E-9D47-8D76-C3D9CFF11723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D763616-E5EA-9544-80CB-4F42F8BF7D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>Features</t>
   </si>
@@ -236,10 +236,7 @@
     <t>Tot act hours vs plan</t>
   </si>
   <si>
-    <t>2020-01-17 pending</t>
-  </si>
-  <si>
-    <t>2020-01-17 Pending</t>
+    <t>2020-01-20 Pending</t>
   </si>
 </sst>
 </file>
@@ -635,7 +632,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -816,17 +813,17 @@
         <v>36</v>
       </c>
       <c r="P11" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S11">
         <f>M11-P11</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -1333,11 +1330,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1353,11 +1350,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>4.125</v>
+        <v>4.25</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>4.875</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1366,7 +1363,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>11.224489795918368</v>
+        <v>11.564625850340136</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1381,8 +1378,8 @@
       <c r="P41">
         <v>19</v>
       </c>
-      <c r="Q41" s="6" t="s">
-        <v>67</v>
+      <c r="Q41" s="6">
+        <v>43847</v>
       </c>
       <c r="R41" t="s">
         <v>36</v>
@@ -1403,7 +1400,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1412,7 +1409,7 @@
       </c>
       <c r="P44">
         <f>P43/8</f>
-        <v>6.5</v>
+        <v>6.625</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1421,7 +1418,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/M36</f>
-        <v>0.17687074829931973</v>
+        <v>0.18027210884353742</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">
@@ -1430,7 +1427,7 @@
       </c>
       <c r="P46" s="8">
         <f>P43/M36</f>
-        <v>0.17687074829931973</v>
+        <v>0.18027210884353742</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/Examensarbete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D763616-E5EA-9544-80CB-4F42F8BF7D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420A0E06-35D5-5A4E-9538-C8887060CA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -630,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
@@ -813,7 +813,7 @@
         <v>36</v>
       </c>
       <c r="P11" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>67</v>
@@ -823,7 +823,7 @@
       </c>
       <c r="S11">
         <f>M11-P11</f>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -1330,11 +1330,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>4.25</v>
+        <v>4.625</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>4.75</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>11.564625850340136</v>
+        <v>12.585034013605442</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P44">
         <f>P43/8</f>
-        <v>6.625</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/M36</f>
-        <v>0.18027210884353742</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="P46" s="8">
         <f>P43/M36</f>
-        <v>0.18027210884353742</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/Examensarbete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420A0E06-35D5-5A4E-9538-C8887060CA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A810AA-D216-0E4C-BC19-E59120B83A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -632,7 +632,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -813,7 +813,7 @@
         <v>36</v>
       </c>
       <c r="P11" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>67</v>
@@ -823,7 +823,7 @@
       </c>
       <c r="S11">
         <f>M11-P11</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -1330,11 +1330,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>4.625</v>
+        <v>4.75</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>4.375</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>12.585034013605442</v>
+        <v>12.925170068027212</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P44">
         <f>P43/8</f>
-        <v>7</v>
+        <v>7.125</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/M36</f>
-        <v>0.19047619047619047</v>
+        <v>0.19387755102040816</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="P46" s="8">
         <f>P43/M36</f>
-        <v>0.19047619047619047</v>
+        <v>0.19387755102040816</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/Examensarbete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A810AA-D216-0E4C-BC19-E59120B83A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA168E2A-8EA0-C34B-A242-39FB2CBDBAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -813,7 +813,7 @@
         <v>36</v>
       </c>
       <c r="P11" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>67</v>
@@ -823,7 +823,7 @@
       </c>
       <c r="S11">
         <f>M11-P11</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -1330,11 +1330,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>4.75</v>
+        <v>4.875</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>4.25</v>
+        <v>4.125</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>12.925170068027212</v>
+        <v>13.26530612244898</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P44">
         <f>P43/8</f>
-        <v>7.125</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/M36</f>
-        <v>0.19387755102040816</v>
+        <v>0.19727891156462585</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="P46" s="8">
         <f>P43/M36</f>
-        <v>0.19387755102040816</v>
+        <v>0.19727891156462585</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/Examensarbete/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA168E2A-8EA0-C34B-A242-39FB2CBDBAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E38834C-7EA8-1949-A0E8-DEE04B30EC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -236,7 +236,7 @@
     <t>Tot act hours vs plan</t>
   </si>
   <si>
-    <t>2020-01-20 Pending</t>
+    <t>2020-01-21 Pending</t>
   </si>
 </sst>
 </file>
@@ -813,17 +813,17 @@
         <v>36</v>
       </c>
       <c r="P11" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>67</v>
       </c>
       <c r="R11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="S11">
         <f>M11-P11</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -1330,11 +1330,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>4.875</v>
+        <v>5.125</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>4.125</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>13.26530612244898</v>
+        <v>13.945578231292515</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P44">
         <f>P43/8</f>
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/M36</f>
-        <v>0.19727891156462585</v>
+        <v>0.20408163265306123</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="P46" s="8">
         <f>P43/M36</f>
-        <v>0.19727891156462585</v>
+        <v>0.20408163265306123</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E38834C-7EA8-1949-A0E8-DEE04B30EC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E171106-CF64-044C-BBE3-57DE7A403DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>Features</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>2020-01-21 Pending</t>
+  </si>
+  <si>
+    <t>Underestimated this task since it implies starting building own pages with react for the first time</t>
   </si>
 </sst>
 </file>
@@ -630,9 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -958,7 +961,7 @@
       </c>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F17" s="1" t="s">
         <v>38</v>
       </c>
@@ -971,7 +974,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>1</v>
       </c>
@@ -995,7 +998,7 @@
       </c>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:20" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
         <v>40</v>
       </c>
@@ -1016,7 +1019,7 @@
       </c>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>2</v>
       </c>
@@ -1040,7 +1043,7 @@
       </c>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:20" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
         <v>40</v>
       </c>
@@ -1061,7 +1064,7 @@
       </c>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>18</v>
       </c>
@@ -1080,9 +1083,24 @@
       <c r="O22" t="s">
         <v>37</v>
       </c>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ref="S22" si="1">M22-P22</f>
+        <v>4</v>
+      </c>
+      <c r="T22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="6:20" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
         <v>42</v>
       </c>
@@ -1100,7 +1118,7 @@
       </c>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
         <v>43</v>
       </c>
@@ -1121,7 +1139,7 @@
       </c>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:20" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
         <v>16</v>
       </c>
@@ -1139,7 +1157,7 @@
       </c>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:20" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
         <v>40</v>
       </c>
@@ -1157,7 +1175,7 @@
       </c>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:20" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
         <v>17</v>
       </c>
@@ -1175,7 +1193,7 @@
       </c>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
         <v>44</v>
       </c>
@@ -1195,7 +1213,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
         <v>46</v>
       </c>
@@ -1215,7 +1233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
         <v>3</v>
       </c>
@@ -1235,7 +1253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:20" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
         <v>19</v>
       </c>
@@ -1252,7 +1270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:20" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
         <v>40</v>
       </c>
@@ -1330,11 +1348,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1350,11 +1368,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>5.125</v>
+        <v>5.625</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>3.875</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1363,7 +1381,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>13.945578231292515</v>
+        <v>15.306122448979592</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1400,7 +1418,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1409,7 +1427,7 @@
       </c>
       <c r="P44">
         <f>P43/8</f>
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1418,7 +1436,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/M36</f>
-        <v>0.20408163265306123</v>
+        <v>0.21768707482993196</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">
@@ -1427,7 +1445,7 @@
       </c>
       <c r="P46" s="8">
         <f>P43/M36</f>
-        <v>0.20408163265306123</v>
+        <v>0.21768707482993196</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E171106-CF64-044C-BBE3-57DE7A403DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5527E32D-FF7A-F34F-A7EF-AA3DC6D5BB5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -633,9 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,22 +1083,6 @@
       <c r="O22" t="s">
         <v>37</v>
       </c>
-      <c r="P22">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="R22" t="s">
-        <v>31</v>
-      </c>
-      <c r="S22">
-        <f t="shared" ref="S22" si="1">M22-P22</f>
-        <v>4</v>
-      </c>
-      <c r="T22" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="23" spans="6:20" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
@@ -1116,7 +1100,22 @@
       <c r="O23" t="s">
         <v>31</v>
       </c>
-      <c r="Q23" s="6"/>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23">
+        <f>M23-P23</f>
+        <v>4</v>
+      </c>
+      <c r="T23" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F24" t="s">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5527E32D-FF7A-F34F-A7EF-AA3DC6D5BB5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C733A1C-CE76-FF49-B4CB-53D799A9D453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -633,9 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C733A1C-CE76-FF49-B4CB-53D799A9D453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD3FF56-B715-0548-BB50-44FA2BA54322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>Features</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Underestimated this task since it implies starting building own pages with react for the first time</t>
+  </si>
+  <si>
+    <t>2020-01-22 Pending</t>
   </si>
 </sst>
 </file>
@@ -633,9 +636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1101,17 +1104,17 @@
         <v>31</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S23">
         <f>M23-P23</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="T23" t="s">
         <v>68</v>
@@ -1347,11 +1350,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1367,11 +1370,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>5.625</v>
+        <v>6.25</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>4.375</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1380,7 +1383,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>15.306122448979592</v>
+        <v>17.006802721088434</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1417,7 +1420,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1426,7 +1429,7 @@
       </c>
       <c r="P44">
         <f>P43/8</f>
-        <v>8</v>
+        <v>8.625</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1435,7 +1438,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/M36</f>
-        <v>0.21768707482993196</v>
+        <v>0.23469387755102042</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">
@@ -1444,7 +1447,7 @@
       </c>
       <c r="P46" s="8">
         <f>P43/M36</f>
-        <v>0.21768707482993196</v>
+        <v>0.23469387755102042</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD3FF56-B715-0548-BB50-44FA2BA54322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0755B755-22DC-4E48-BB25-21BFAF2C2D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="640" windowWidth="27640" windowHeight="15920" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>Features</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Tot ant tim</t>
   </si>
   <si>
-    <t>Tot act hours vs plan</t>
-  </si>
-  <si>
     <t>2020-01-21 Pending</t>
   </si>
   <si>
@@ -243,12 +240,18 @@
   </si>
   <si>
     <t>2020-01-22 Pending</t>
+  </si>
+  <si>
+    <t>% of plan + added</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -310,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -320,6 +323,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,23 +640,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="6" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -822,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R11" t="s">
         <v>31</v>
@@ -1107,7 +1111,7 @@
         <v>9</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R23" t="s">
         <v>33</v>
@@ -1117,7 +1121,7 @@
         <v>-1</v>
       </c>
       <c r="T23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="6:20" x14ac:dyDescent="0.2">
@@ -1427,28 +1431,22 @@
       <c r="O44" t="s">
         <v>28</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="9">
         <f>P43/8</f>
         <v>8.625</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
       <c r="O45" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="P45" s="8">
-        <f>P43/M36</f>
-        <v>0.23469387755102042</v>
+        <f>P43/(M36+P42)</f>
+        <v>0.22044728434504793</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="O46" t="s">
-        <v>66</v>
-      </c>
-      <c r="P46" s="8">
-        <f>P43/M36</f>
-        <v>0.23469387755102042</v>
-      </c>
+      <c r="P46" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0755B755-22DC-4E48-BB25-21BFAF2C2D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7ED61C-ED74-8D46-A0B7-3E21A87CC8D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>Features</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>% of plan + added</t>
+  </si>
+  <si>
+    <t>2020-01-27 Pending</t>
   </si>
 </sst>
 </file>
@@ -640,9 +643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,6 +1093,19 @@
       <c r="O22" t="s">
         <v>37</v>
       </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>70</v>
+      </c>
+      <c r="R22" t="s">
+        <v>37</v>
+      </c>
+      <c r="S22">
+        <f>M22-P22</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="6:20" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
@@ -1354,11 +1370,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1374,11 +1390,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>6.25</v>
+        <v>6.625</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>3.75</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1387,7 +1403,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>17.006802721088434</v>
+        <v>18.027210884353742</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1424,7 +1440,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1433,7 +1449,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>8.625</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1442,7 +1458,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.22044728434504793</v>
+        <v>0.23003194888178913</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7ED61C-ED74-8D46-A0B7-3E21A87CC8D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2737163E-7AE1-BD42-9186-0A6C130E144A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t>Features</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>2020-01-27 Pending</t>
+  </si>
+  <si>
+    <t>2020-01-28 Pending</t>
   </si>
 </sst>
 </file>
@@ -644,8 +647,8 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,7 +1009,19 @@
       <c r="O18" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="6"/>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R18" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18" si="1">M18-P18</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="6:20" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
@@ -1370,11 +1385,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1390,11 +1405,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>6.625</v>
+        <v>6.875</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>4.375</v>
+        <v>4.625</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1403,7 +1418,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>18.027210884353742</v>
+        <v>18.707482993197281</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1440,7 +1455,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1449,7 +1464,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>9</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1458,7 +1473,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.23003194888178913</v>
+        <v>0.2364217252396166</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2737163E-7AE1-BD42-9186-0A6C130E144A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795A4D5A-E706-634F-B25A-111BBC26989B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -248,7 +249,7 @@
     <t>2020-01-27 Pending</t>
   </si>
   <si>
-    <t>2020-01-28 Pending</t>
+    <t>2020-01-29 Pending</t>
   </si>
 </sst>
 </file>
@@ -648,7 +649,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,7 +1011,7 @@
         <v>37</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>71</v>
@@ -1020,7 +1021,7 @@
       </c>
       <c r="S18">
         <f t="shared" ref="S18" si="1">M18-P18</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="6:20" x14ac:dyDescent="0.2">
@@ -1385,11 +1386,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1405,11 +1406,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>6.875</v>
+        <v>7.25</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>4.625</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1418,7 +1419,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>18.707482993197281</v>
+        <v>19.727891156462583</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1455,7 +1456,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1464,7 +1465,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>9.25</v>
+        <v>9.625</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1473,7 +1474,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.2364217252396166</v>
+        <v>0.24600638977635783</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795A4D5A-E706-634F-B25A-111BBC26989B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B1E80B-2D90-6A4A-A653-413854CD12DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -647,9 +647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B1E80B-2D90-6A4A-A653-413854CD12DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A572B3-5EA4-E64F-B464-199C43FFB2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -216,9 +216,6 @@
     <t>Also incl learning to work with git om a mac</t>
   </si>
   <si>
-    <t>2020-01-14 Pending</t>
-  </si>
-  <si>
     <t>Added necessairy tasks</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>2020-01-29 Pending</t>
+  </si>
+  <si>
+    <t>2020-01-30 Pending</t>
   </si>
 </sst>
 </file>
@@ -647,9 +647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R11" t="s">
         <v>31</v>
@@ -942,17 +942,17 @@
         <v>36</v>
       </c>
       <c r="P15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R18" t="s">
         <v>31</v>
@@ -1113,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="Q22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R22" t="s">
         <v>37</v>
@@ -1143,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R23" t="s">
         <v>33</v>
@@ -1153,7 +1153,7 @@
         <v>-1</v>
       </c>
       <c r="T23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="6:20" x14ac:dyDescent="0.2">
@@ -1386,11 +1386,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1406,11 +1406,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>7.25</v>
+        <v>7.625</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>4.25</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1419,17 +1419,17 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>19.727891156462583</v>
+        <v>20.748299319727892</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
       <c r="F40" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P41">
         <v>19</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="42" spans="6:19" x14ac:dyDescent="0.2">
       <c r="O42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P42">
         <f>SUM(P41)</f>
@@ -1452,11 +1452,11 @@
     </row>
     <row r="43" spans="6:19" x14ac:dyDescent="0.2">
       <c r="O43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1465,16 +1465,16 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>9.625</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
       <c r="O45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.24600638977635783</v>
+        <v>0.25559105431309903</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A572B3-5EA4-E64F-B464-199C43FFB2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C71BD62-B7F3-554F-9253-4F31B2456763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -647,9 +647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,14 +942,14 @@
         <v>36</v>
       </c>
       <c r="P15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>71</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T15" t="s">
         <v>62</v>
@@ -1386,11 +1386,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1406,11 +1406,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>7.625</v>
+        <v>8.125</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>3.875</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>20.748299319727892</v>
+        <v>22.108843537414966</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.25559105431309903</v>
+        <v>0.26837060702875398</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C71BD62-B7F3-554F-9253-4F31B2456763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8903B134-887E-594D-A9B7-1F976DD4D862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -222,9 +222,6 @@
     <t>Rekapitulera vanilla js</t>
   </si>
   <si>
-    <t>Plus a buch of off office hours, problem making connection to db work</t>
-  </si>
-  <si>
     <t>Sum added tasks</t>
   </si>
   <si>
@@ -249,7 +246,10 @@
     <t>2020-01-29 Pending</t>
   </si>
   <si>
-    <t>2020-01-30 Pending</t>
+    <t>2020-01-31 Pending</t>
+  </si>
+  <si>
+    <t>Plus a bunch of off office hours, problem making connection to db work</t>
   </si>
 </sst>
 </file>
@@ -647,9 +647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R11" t="s">
         <v>31</v>
@@ -942,17 +942,17 @@
         <v>36</v>
       </c>
       <c r="P15">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="T15" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R18" t="s">
         <v>31</v>
@@ -1113,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="Q22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R22" t="s">
         <v>37</v>
@@ -1143,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R23" t="s">
         <v>33</v>
@@ -1153,7 +1153,7 @@
         <v>-1</v>
       </c>
       <c r="T23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="6:20" x14ac:dyDescent="0.2">
@@ -1386,11 +1386,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1406,11 +1406,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>8.125</v>
+        <v>8.5</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>3.375</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>22.108843537414966</v>
+        <v>23.129251700680271</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
     </row>
     <row r="42" spans="6:19" x14ac:dyDescent="0.2">
       <c r="O42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P42">
         <f>SUM(P41)</f>
@@ -1452,11 +1452,11 @@
     </row>
     <row r="43" spans="6:19" x14ac:dyDescent="0.2">
       <c r="O43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1465,16 +1465,16 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>10.5</v>
+        <v>10.875</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
       <c r="O45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.26837060702875398</v>
+        <v>0.27795527156549521</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8903B134-887E-594D-A9B7-1F976DD4D862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1CED11-B84E-454F-9016-1FC9DF6DE151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -647,9 +647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomLeft" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,14 +942,14 @@
         <v>36</v>
       </c>
       <c r="P15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>70</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="T15" t="s">
         <v>71</v>
@@ -1386,11 +1386,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1406,11 +1406,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>23.129251700680271</v>
+        <v>23.809523809523807</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>10.875</v>
+        <v>11.125</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.27795527156549521</v>
+        <v>0.28434504792332266</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1CED11-B84E-454F-9016-1FC9DF6DE151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36184261-FC0F-F745-84B4-33FADD97304B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -246,10 +246,10 @@
     <t>2020-01-29 Pending</t>
   </si>
   <si>
-    <t>2020-01-31 Pending</t>
-  </si>
-  <si>
     <t>Plus a bunch of off office hours, problem making connection to db work</t>
+  </si>
+  <si>
+    <t>2020-02-03 Pending</t>
   </si>
 </sst>
 </file>
@@ -647,9 +647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T15" sqref="T15"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,17 +942,17 @@
         <v>36</v>
       </c>
       <c r="P15">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="T15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -1386,11 +1386,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1406,11 +1406,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>8.75</v>
+        <v>9.125</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>23.809523809523807</v>
+        <v>24.829931972789115</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>11.125</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.28434504792332266</v>
+        <v>0.29392971246006389</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36184261-FC0F-F745-84B4-33FADD97304B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61006C0-49AC-5845-8D40-61C23FBDA4E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>Features</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Underestimated this task since it implies starting building own pages with react for the first time</t>
   </si>
   <si>
-    <t>2020-01-22 Pending</t>
-  </si>
-  <si>
     <t>% of plan + added</t>
   </si>
   <si>
@@ -249,7 +246,7 @@
     <t>Plus a bunch of off office hours, problem making connection to db work</t>
   </si>
   <si>
-    <t>2020-02-03 Pending</t>
+    <t>2020-02-04 Pending</t>
   </si>
 </sst>
 </file>
@@ -647,9 +644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,17 +939,20 @@
         <v>36</v>
       </c>
       <c r="P15">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="R15" t="s">
+        <v>31</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="T15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R18" t="s">
         <v>31</v>
@@ -1113,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="Q22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R22" t="s">
         <v>37</v>
@@ -1140,17 +1140,17 @@
         <v>31</v>
       </c>
       <c r="P23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="R23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S23">
         <f>M23-P23</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="T23" t="s">
         <v>65</v>
@@ -1386,11 +1386,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1406,11 +1406,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>9.125</v>
+        <v>9.5</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>2.375</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>24.829931972789115</v>
+        <v>25.850340136054424</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1465,16 +1465,16 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>11.5</v>
+        <v>11.875</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
       <c r="O45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.29392971246006389</v>
+        <v>0.30351437699680511</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61006C0-49AC-5845-8D40-61C23FBDA4E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70474496-9724-8343-9DDC-F5227DC5F6F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>Features</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>2020-02-04 Pending</t>
+  </si>
+  <si>
+    <t>2020-02-05 Pending</t>
   </si>
 </sst>
 </file>
@@ -645,8 +648,8 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,17 +942,17 @@
         <v>36</v>
       </c>
       <c r="P15">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="T15" t="s">
         <v>69</v>
@@ -1386,11 +1389,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1406,11 +1409,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1419,7 +1422,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>25.850340136054424</v>
+        <v>27.210884353741498</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1456,7 +1459,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1465,7 +1468,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>11.875</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1474,7 +1477,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.30351437699680511</v>
+        <v>0.31629392971246006</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70474496-9724-8343-9DDC-F5227DC5F6F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C721B6-7B89-7C49-A328-AD0068DB0BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -243,13 +243,13 @@
     <t>2020-01-29 Pending</t>
   </si>
   <si>
-    <t>Plus a bunch of off office hours, problem making connection to db work</t>
-  </si>
-  <si>
     <t>2020-02-04 Pending</t>
   </si>
   <si>
-    <t>2020-02-05 Pending</t>
+    <t>2020-02-06 Pending</t>
+  </si>
+  <si>
+    <t>Plus a bunch of off office hours, problem making connection to db work due to blank space in sql syntax, but generally underestimated</t>
   </si>
 </sst>
 </file>
@@ -647,9 +647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,20 +942,20 @@
         <v>36</v>
       </c>
       <c r="P15">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -1146,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R23" t="s">
         <v>31</v>
@@ -1389,11 +1389,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1409,11 +1409,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>27.210884353741498</v>
+        <v>28.571428571428569</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>12.375</v>
+        <v>12.875</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.31629392971246006</v>
+        <v>0.32907348242811502</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C721B6-7B89-7C49-A328-AD0068DB0BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0842722F-A584-564E-9202-75BE7AE3850A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -249,7 +249,7 @@
     <t>2020-02-06 Pending</t>
   </si>
   <si>
-    <t>Plus a bunch of off office hours, problem making connection to db work due to blank space in sql syntax, but generally underestimated</t>
+    <t>Plus a bunch of off office hours, problem making connection to db due to blank space in sql syntax, but generally underestimated</t>
   </si>
 </sst>
 </file>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0842722F-A584-564E-9202-75BE7AE3850A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD095C83-65C2-6141-8A7B-D2E906D5C9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>Features</t>
   </si>
@@ -250,6 +249,9 @@
   </si>
   <si>
     <t>Plus a bunch of off office hours, problem making connection to db due to blank space in sql syntax, but generally underestimated</t>
+  </si>
+  <si>
+    <t>2020-02-10 Pending</t>
   </si>
 </sst>
 </file>
@@ -649,7 +651,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T15" sqref="T15"/>
+      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1046,7 +1048,15 @@
       <c r="O19" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="6"/>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
@@ -1389,7 +1399,7 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
@@ -1409,7 +1419,7 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>10.5</v>
+        <v>10.875</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
@@ -1422,7 +1432,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>28.571428571428569</v>
+        <v>29.591836734693878</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1459,7 +1469,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1468,7 +1478,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>12.875</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1477,7 +1487,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.32907348242811502</v>
+        <v>0.33865814696485624</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD095C83-65C2-6141-8A7B-D2E906D5C9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C058112-2BAC-DB41-93FE-4BAA9B3525BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>Features</t>
   </si>
@@ -251,7 +251,10 @@
     <t>Plus a bunch of off office hours, problem making connection to db due to blank space in sql syntax, but generally underestimated</t>
   </si>
   <si>
-    <t>2020-02-10 Pending</t>
+    <t>2020-02-11 Pending</t>
+  </si>
+  <si>
+    <t>Greate trouble making it work to update db via react app</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
+      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1028,7 @@
         <v>31</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18" si="1">M18-P18</f>
+        <f t="shared" ref="S18:S19" si="1">M18-P18</f>
         <v>-1</v>
       </c>
     </row>
@@ -1049,13 +1052,20 @@
         <v>31</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>72</v>
       </c>
       <c r="R19" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.2">
@@ -1399,11 +1409,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1419,11 +1429,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>10.875</v>
+        <v>11.25</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1432,7 +1442,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>29.591836734693878</v>
+        <v>30.612244897959183</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1469,7 +1479,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1478,7 +1488,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>13.25</v>
+        <v>13.625</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1487,7 +1497,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.33865814696485624</v>
+        <v>0.34824281150159747</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C058112-2BAC-DB41-93FE-4BAA9B3525BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD838D8E-A1DC-0847-9243-B41E6F7114D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -251,10 +251,10 @@
     <t>Plus a bunch of off office hours, problem making connection to db due to blank space in sql syntax, but generally underestimated</t>
   </si>
   <si>
-    <t>2020-02-11 Pending</t>
-  </si>
-  <si>
     <t>Greate trouble making it work to update db via react app</t>
+  </si>
+  <si>
+    <t>2020-02-14 Pending</t>
   </si>
 </sst>
 </file>
@@ -653,8 +653,8 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1052,20 +1052,20 @@
         <v>31</v>
       </c>
       <c r="P19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="T19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.2">
@@ -1409,11 +1409,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1429,11 +1429,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>11.25</v>
+        <v>11.625</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>1.25</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>30.612244897959183</v>
+        <v>31.632653061224492</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>13.625</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.34824281150159747</v>
+        <v>0.35782747603833864</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD838D8E-A1DC-0847-9243-B41E6F7114D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D554F9DF-DC1F-8248-B092-1A49300568AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -254,7 +254,7 @@
     <t>Greate trouble making it work to update db via react app</t>
   </si>
   <si>
-    <t>2020-02-14 Pending</t>
+    <t>2020-02-17 Pending</t>
   </si>
 </sst>
 </file>
@@ -1052,17 +1052,17 @@
         <v>31</v>
       </c>
       <c r="P19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>73</v>
       </c>
       <c r="R19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="T19" t="s">
         <v>72</v>
@@ -1409,11 +1409,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1429,11 +1429,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>11.625</v>
+        <v>12</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>31.632653061224492</v>
+        <v>32.653061224489797</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>14</v>
+        <v>14.375</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.35782747603833864</v>
+        <v>0.36741214057507987</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D554F9DF-DC1F-8248-B092-1A49300568AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E938859B-382B-E340-91F9-E56535FD9380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -254,7 +254,7 @@
     <t>Greate trouble making it work to update db via react app</t>
   </si>
   <si>
-    <t>2020-02-17 Pending</t>
+    <t>2020-02-24 Pending</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
     </sheetView>
@@ -1052,7 +1052,7 @@
         <v>31</v>
       </c>
       <c r="P19">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>73</v>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="T19" t="s">
         <v>72</v>
@@ -1409,11 +1409,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1429,11 +1429,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>12</v>
+        <v>12.875</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>0.5</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>32.653061224489797</v>
+        <v>35.034013605442176</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>14.375</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.36741214057507987</v>
+        <v>0.38977635782747605</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E938859B-382B-E340-91F9-E56535FD9380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4D2B03-A6EE-5248-9AC3-D6D7A144AE11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -254,7 +254,7 @@
     <t>Greate trouble making it work to update db via react app</t>
   </si>
   <si>
-    <t>2020-02-24 Pending</t>
+    <t>2020-02-26 Pending</t>
   </si>
 </sst>
 </file>
@@ -652,9 +652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomLeft" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1052,17 +1052,17 @@
         <v>31</v>
       </c>
       <c r="P19">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>73</v>
       </c>
       <c r="R19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="T19" t="s">
         <v>72</v>
@@ -1409,11 +1409,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>-3</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1429,11 +1429,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>12.875</v>
+        <v>13.25</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>-0.375</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>35.034013605442176</v>
+        <v>36.054421768707485</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>15.25</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.38977635782747605</v>
+        <v>0.39936102236421728</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4D2B03-A6EE-5248-9AC3-D6D7A144AE11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D829C65-83C5-DC45-95A4-33EB640A1FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -254,7 +254,7 @@
     <t>Greate trouble making it work to update db via react app</t>
   </si>
   <si>
-    <t>2020-02-26 Pending</t>
+    <t>2020-02-27 Pending</t>
   </si>
 </sst>
 </file>
@@ -1052,17 +1052,17 @@
         <v>31</v>
       </c>
       <c r="P19">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>73</v>
       </c>
       <c r="R19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="T19" t="s">
         <v>72</v>
@@ -1409,11 +1409,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>-6</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1429,11 +1429,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>13.25</v>
+        <v>13.625</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>-0.75</v>
+        <v>-1.125</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>36.054421768707485</v>
+        <v>37.074829931972793</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>15.625</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.39936102236421728</v>
+        <v>0.40894568690095845</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D829C65-83C5-DC45-95A4-33EB640A1FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA86BA7B-E6D1-F147-89E2-594C2ECC9471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -251,10 +251,10 @@
     <t>Plus a bunch of off office hours, problem making connection to db due to blank space in sql syntax, but generally underestimated</t>
   </si>
   <si>
-    <t>Greate trouble making it work to update db via react app</t>
-  </si>
-  <si>
-    <t>2020-02-27 Pending</t>
+    <t>2020-02-28 Pending</t>
+  </si>
+  <si>
+    <t>Greate trouble making it work to update db via react app. Finally got through..</t>
   </si>
 </sst>
 </file>
@@ -652,9 +652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1052,20 +1052,20 @@
         <v>31</v>
       </c>
       <c r="P19">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R19" t="s">
         <v>35</v>
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
-        <v>-17</v>
+        <v>-24</v>
       </c>
       <c r="T19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.2">
@@ -1409,11 +1409,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>-9</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1429,11 +1429,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>13.625</v>
+        <v>14.5</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>-1.125</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>37.074829931972793</v>
+        <v>39.455782312925166</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>16</v>
+        <v>16.875</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.40894568690095845</v>
+        <v>0.43130990415335463</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA86BA7B-E6D1-F147-89E2-594C2ECC9471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4879EF02-4B29-1E4B-8C89-61889B36FEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -251,10 +251,10 @@
     <t>Plus a bunch of off office hours, problem making connection to db due to blank space in sql syntax, but generally underestimated</t>
   </si>
   <si>
-    <t>2020-02-28 Pending</t>
-  </si>
-  <si>
     <t>Greate trouble making it work to update db via react app. Finally got through..</t>
+  </si>
+  <si>
+    <t>2020-03-03 Pending</t>
   </si>
 </sst>
 </file>
@@ -1052,20 +1052,20 @@
         <v>31</v>
       </c>
       <c r="P19">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R19" t="s">
         <v>35</v>
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="T19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.2">
@@ -1409,11 +1409,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>-16</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1429,11 +1429,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>14.5</v>
+        <v>15.875</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>-2</v>
+        <v>-3.375</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>39.455782312925166</v>
+        <v>43.197278911564624</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>16.875</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.43130990415335463</v>
+        <v>0.46645367412140576</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4879EF02-4B29-1E4B-8C89-61889B36FEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5038A955-A454-E541-A03D-F26FCDD94F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>Features</t>
   </si>
@@ -251,10 +251,13 @@
     <t>Plus a bunch of off office hours, problem making connection to db due to blank space in sql syntax, but generally underestimated</t>
   </si>
   <si>
-    <t>Greate trouble making it work to update db via react app. Finally got through..</t>
-  </si>
-  <si>
-    <t>2020-03-03 Pending</t>
+    <t>2020-03-12 Pending</t>
+  </si>
+  <si>
+    <t>Greate trouble making it work to update db via react app. Then great trouble sending all user fields to db. Finally got through with support from Rakib</t>
+  </si>
+  <si>
+    <t>2020-03-23 Pending</t>
   </si>
 </sst>
 </file>
@@ -652,9 +655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1028,7 +1031,7 @@
         <v>31</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:S19" si="1">M18-P18</f>
+        <f t="shared" ref="S18:S21" si="1">M18-P18</f>
         <v>-1</v>
       </c>
     </row>
@@ -1052,20 +1055,20 @@
         <v>31</v>
       </c>
       <c r="P19">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R19" t="s">
         <v>35</v>
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
-        <v>-35</v>
+        <v>-55</v>
       </c>
       <c r="T19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.2">
@@ -1090,7 +1093,19 @@
       <c r="O20" t="s">
         <v>33</v>
       </c>
-      <c r="Q20" s="6"/>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>43902</v>
+      </c>
+      <c r="R20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="6:20" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
@@ -1111,7 +1126,19 @@
       <c r="O21" t="s">
         <v>35</v>
       </c>
-      <c r="Q21" s="6"/>
+      <c r="P21">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
     </row>
     <row r="22" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
@@ -1291,6 +1318,15 @@
         <v>43865</v>
       </c>
       <c r="O29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>43921</v>
+      </c>
+      <c r="R29" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1409,11 +1445,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>-27</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1429,11 +1465,11 @@
       </c>
       <c r="P37">
         <f>P36/8</f>
-        <v>15.875</v>
+        <v>23.25</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>-3.375</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1442,7 +1478,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>43.197278911564624</v>
+        <v>63.265306122448983</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1479,7 +1515,7 @@
       </c>
       <c r="P43">
         <f>P42+P36</f>
-        <v>146</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
@@ -1488,7 +1524,7 @@
       </c>
       <c r="P44" s="9">
         <f>P43/8</f>
-        <v>18.25</v>
+        <v>25.625</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
@@ -1497,7 +1533,7 @@
       </c>
       <c r="P45" s="8">
         <f>P43/(M36+P42)</f>
-        <v>0.46645367412140576</v>
+        <v>0.65495207667731625</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5038A955-A454-E541-A03D-F26FCDD94F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33D571E-0416-3F46-ACDE-38B074E2073A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>Features</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>2020-03-23 Pending</t>
+  </si>
+  <si>
+    <t>2020-04-03 Pending</t>
+  </si>
+  <si>
+    <t>Guessers Average Component</t>
   </si>
 </sst>
 </file>
@@ -653,11 +659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1243,7 +1249,19 @@
       <c r="O25" t="s">
         <v>33</v>
       </c>
-      <c r="Q25" s="6"/>
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>43922</v>
+      </c>
+      <c r="R25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25">
+        <f>M25-P25</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="6:20" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
@@ -1261,7 +1279,19 @@
       <c r="O26" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="6"/>
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26">
+        <f>M26-P26</f>
+        <v>-2</v>
+      </c>
     </row>
     <row r="27" spans="6:20" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
@@ -1328,6 +1358,10 @@
       </c>
       <c r="R29" t="s">
         <v>31</v>
+      </c>
+      <c r="S29">
+        <f>M29-P29</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="30" spans="6:20" x14ac:dyDescent="0.2">
@@ -1445,11 +1479,11 @@
       </c>
       <c r="P36">
         <f>SUM(P10:P35)</f>
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="S36">
         <f>SUM(S10:S35)</f>
-        <v>-66</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="37" spans="6:19" x14ac:dyDescent="0.2">
@@ -1457,19 +1491,19 @@
         <v>28</v>
       </c>
       <c r="M37">
-        <f>M36/8</f>
-        <v>36.75</v>
+        <f>M36/7</f>
+        <v>42</v>
       </c>
       <c r="O37" t="s">
         <v>28</v>
       </c>
-      <c r="P37">
-        <f>P36/8</f>
-        <v>23.25</v>
+      <c r="P37" s="7">
+        <f>P36/7</f>
+        <v>28.571428571428573</v>
       </c>
       <c r="S37">
         <f>S36/8</f>
-        <v>-8.25</v>
+        <v>-8.75</v>
       </c>
     </row>
     <row r="38" spans="6:19" x14ac:dyDescent="0.2">
@@ -1478,7 +1512,7 @@
       </c>
       <c r="P38" s="7">
         <f>(P36/M36)*100</f>
-        <v>63.265306122448983</v>
+        <v>68.027210884353735</v>
       </c>
     </row>
     <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
@@ -1501,43 +1535,57 @@
       </c>
     </row>
     <row r="42" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="O42" t="s">
-        <v>62</v>
+      <c r="F42" t="s">
+        <v>76</v>
       </c>
       <c r="P42">
-        <f>SUM(P41)</f>
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>43923</v>
+      </c>
+      <c r="R42" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="6:19" x14ac:dyDescent="0.2">
       <c r="O43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P43">
-        <f>P42+P36</f>
-        <v>205</v>
+        <f>SUM(P41:P42)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
       <c r="O44" t="s">
-        <v>28</v>
-      </c>
-      <c r="P44" s="9">
-        <f>P43/8</f>
-        <v>25.625</v>
+        <v>63</v>
+      </c>
+      <c r="P44">
+        <f>P43+P36</f>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
       <c r="O45" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" s="9">
+        <f>P44/7</f>
+        <v>31.857142857142858</v>
+      </c>
+    </row>
+    <row r="46" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="O46" t="s">
         <v>66</v>
       </c>
-      <c r="P45" s="8">
-        <f>P43/(M36+P42)</f>
-        <v>0.65495207667731625</v>
-      </c>
-    </row>
-    <row r="46" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="P46" s="8"/>
+      <c r="P46" s="8">
+        <f>P44/(M36+P43)</f>
+        <v>0.70347003154574128</v>
+      </c>
+    </row>
+    <row r="47" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="P47" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tidsplan_xjobb.xlsx
+++ b/Tidsplan_xjobb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carl.schlyter/OneDriveDentsu/localhost/examensarbete_a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33D571E-0416-3F46-ACDE-38B074E2073A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEB87A8-06A4-9548-8B24-915CEFF7899D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{283ADF86-6020-3D41-9AD4-19E14A7A3190}"/>
   </bookViews>
@@ -260,10 +260,10 @@
     <t>2020-03-23 Pending</t>
   </si>
   <si>
-    <t>2020-04-03 Pending</t>
-  </si>
-  <si>
     <t>Guessers Average Component</t>
+  </si>
+  <si>
+    <t>Fakt. Projekslut</t>
   </si>
 </sst>
 </file>
@@ -659,11 +659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776197E-6351-F840-8D43-A3A4BE97CA17}">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,174 +714,161 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="6">
+        <v>43936</v>
+      </c>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="K10" s="5">
-        <v>-3</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5">
-        <v>8</v>
-      </c>
-      <c r="N10" s="6">
-        <v>43817</v>
-      </c>
-      <c r="O10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>43817</v>
-      </c>
-      <c r="R10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10">
-        <f>M10-P10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>53</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="K11" s="5">
-        <v>-2</v>
-      </c>
-      <c r="L11" s="5">
-        <v>-1</v>
-      </c>
+        <v>-3</v>
+      </c>
+      <c r="L11" s="5"/>
       <c r="M11" s="5">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N11" s="6">
-        <v>43833</v>
+        <v>43817</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P11" s="5">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>64</v>
+        <v>8</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>43817</v>
       </c>
       <c r="R11" t="s">
         <v>31</v>
       </c>
       <c r="S11">
         <f>M11-P11</f>
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5"/>
+        <v>-2</v>
+      </c>
+      <c r="L12" s="5">
+        <v>-1</v>
+      </c>
       <c r="M12" s="5">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N12" s="6">
-        <v>43838</v>
+        <v>43833</v>
       </c>
       <c r="O12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="P12" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12">
+        <f>M12-P12</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -893,52 +880,38 @@
         <v>16</v>
       </c>
       <c r="N13" s="6">
-        <v>43840</v>
+        <v>43838</v>
       </c>
       <c r="O13" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>55</v>
+      <c r="C14" t="s">
+        <v>7</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="K14" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5">
         <v>16</v>
       </c>
       <c r="N14" s="6">
-        <v>43844</v>
+        <v>43840</v>
       </c>
       <c r="O14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>43839</v>
-      </c>
-      <c r="R14" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14">
-        <f t="shared" ref="S14:S15" si="0">M14-P14</f>
-        <v>12</v>
-      </c>
-      <c r="T14" t="s">
-        <v>59</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -947,103 +920,106 @@
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N15" s="6">
-        <v>43847</v>
+        <v>43844</v>
       </c>
       <c r="O15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P15">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>43839</v>
       </c>
       <c r="R15" t="s">
         <v>35</v>
       </c>
       <c r="S15">
+        <f t="shared" ref="S15:S16" si="0">M15-P15</f>
+        <v>12</v>
+      </c>
+      <c r="T15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="K16" s="5">
+        <v>2</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5">
+        <v>24</v>
+      </c>
+      <c r="N16" s="6">
+        <v>43847</v>
+      </c>
+      <c r="O16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="0"/>
         <v>-18</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+    <row r="17" spans="5:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="K16" s="5">
+      <c r="F17" s="3"/>
+      <c r="K17" s="5">
         <v>3</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5">
-        <v>4</v>
-      </c>
-      <c r="N16" s="6">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5">
+        <v>4</v>
+      </c>
+      <c r="N17" s="6">
         <v>43850</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O17" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F17" s="1" t="s">
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-      <c r="N18" s="6">
-        <v>43850</v>
-      </c>
-      <c r="O18" t="s">
-        <v>37</v>
-      </c>
-      <c r="P18">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="R18" t="s">
-        <v>31</v>
-      </c>
-      <c r="S18">
-        <f t="shared" ref="S18:S21" si="1">M18-P18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="6:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1052,37 +1028,31 @@
         <v>3</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N19" s="6">
-        <v>43851</v>
+        <v>43850</v>
       </c>
       <c r="O19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R19" t="s">
         <v>31</v>
       </c>
-      <c r="P19">
-        <v>63</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="R19" t="s">
-        <v>35</v>
-      </c>
       <c r="S19">
-        <f t="shared" si="1"/>
-        <v>-55</v>
-      </c>
-      <c r="T19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
+        <f t="shared" ref="S19:S22" si="1">M19-P19</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1091,31 +1061,37 @@
         <v>3</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N20" s="6">
-        <v>43852</v>
+        <v>43851</v>
       </c>
       <c r="O20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>43902</v>
+        <v>63</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="R20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S20">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="6:20" x14ac:dyDescent="0.2">
+        <v>-55</v>
+      </c>
+      <c r="T20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1124,64 +1100,67 @@
         <v>3</v>
       </c>
       <c r="M21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N21" s="6">
-        <v>43853</v>
+        <v>43852</v>
       </c>
       <c r="O21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P21">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>74</v>
+        <v>3</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>43902</v>
       </c>
       <c r="R21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="22" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:20" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
-        <v>41</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22">
         <v>8</v>
       </c>
       <c r="N22" s="6">
-        <v>43857</v>
+        <v>43853</v>
       </c>
       <c r="O22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P22">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>67</v>
+        <v>28</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="R22" t="s">
         <v>37</v>
       </c>
       <c r="S22">
-        <f>M22-P22</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="23" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -1190,32 +1169,26 @@
         <v>8</v>
       </c>
       <c r="N23" s="6">
-        <v>43858</v>
+        <v>43857</v>
       </c>
       <c r="O23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P23">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>67</v>
       </c>
       <c r="R23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="S23">
         <f>M23-P23</f>
-        <v>-3</v>
-      </c>
-      <c r="T23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F24" t="s">
-        <v>43</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="5:20" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
         <v>42</v>
       </c>
@@ -1223,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N24" s="6">
         <v>43858</v>
@@ -1231,77 +1204,83 @@
       <c r="O24" t="s">
         <v>31</v>
       </c>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="R24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24">
+        <f>M24-P24</f>
+        <v>-3</v>
+      </c>
+      <c r="T24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
       <c r="G25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25" s="6">
+        <v>43858</v>
+      </c>
+      <c r="O25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
         <v>16</v>
       </c>
-      <c r="K25">
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
-      <c r="N25" s="6">
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26" s="6">
         <v>43859</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O26" t="s">
         <v>33</v>
       </c>
-      <c r="P25">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="6">
+      <c r="P26">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="6">
         <v>43922</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R26" t="s">
         <v>33</v>
-      </c>
-      <c r="S25">
-        <f>M25-P25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <v>8</v>
-      </c>
-      <c r="N26" s="6">
-        <v>43860</v>
-      </c>
-      <c r="O26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P26">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R26" t="s">
-        <v>36</v>
       </c>
       <c r="S26">
         <f>M26-P26</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="27" spans="6:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:20" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K27">
         <v>4</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N27" s="6">
         <v>43860</v>
@@ -1309,84 +1288,97 @@
       <c r="O27" t="s">
         <v>35</v>
       </c>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F28" t="s">
+      <c r="P27">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>43936</v>
+      </c>
+      <c r="R27" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27">
+        <f>M27-P27</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="28" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28" s="6">
+        <v>43860</v>
+      </c>
+      <c r="O28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
         <v>44</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>45</v>
       </c>
-      <c r="K28">
-        <v>4</v>
-      </c>
-      <c r="M28">
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="M29">
         <v>16</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N29" s="6">
         <v>43864</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F29" t="s">
+    <row r="30" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
         <v>46</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>47</v>
-      </c>
-      <c r="K29">
-        <v>5</v>
-      </c>
-      <c r="M29">
-        <v>6</v>
-      </c>
-      <c r="N29" s="6">
-        <v>43865</v>
-      </c>
-      <c r="O29" t="s">
-        <v>31</v>
-      </c>
-      <c r="P29">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>43921</v>
-      </c>
-      <c r="R29" t="s">
-        <v>31</v>
-      </c>
-      <c r="S29">
-        <f>M29-P29</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="30" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>48</v>
       </c>
       <c r="K30">
         <v>5</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N30" s="6">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="O30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="6:20" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="P30">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>43921</v>
+      </c>
+      <c r="R30" t="s">
+        <v>31</v>
+      </c>
+      <c r="S30">
+        <f>M30-P30</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -1401,191 +1393,208 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:20" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="K32">
         <v>5</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N32" s="6">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="O32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="I33" t="s">
-        <v>49</v>
+      <c r="G33" t="s">
+        <v>40</v>
       </c>
       <c r="K33">
         <v>5</v>
       </c>
-      <c r="L33">
-        <v>6</v>
-      </c>
       <c r="M33">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N33" s="6">
-        <v>43872</v>
+        <v>43867</v>
       </c>
       <c r="O33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="6:19" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
         <v>6</v>
       </c>
       <c r="M34">
         <v>24</v>
       </c>
       <c r="N34" s="6">
+        <v>43872</v>
+      </c>
+      <c r="O34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="M35">
+        <v>24</v>
+      </c>
+      <c r="N35" s="6">
         <v>43875</v>
-      </c>
-      <c r="O34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="J35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35">
-        <v>7</v>
-      </c>
-      <c r="M35">
-        <v>40</v>
-      </c>
-      <c r="N35" s="6">
-        <v>43882</v>
       </c>
       <c r="O35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36">
+        <v>7</v>
+      </c>
       <c r="M36">
-        <f>SUM(M10:M35)</f>
+        <v>40</v>
+      </c>
+      <c r="N36" s="6">
+        <v>43882</v>
+      </c>
+      <c r="O36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <f>SUM(M11:M36)</f>
         <v>294</v>
       </c>
-      <c r="P36">
-        <f>SUM(P10:P35)</f>
-        <v>200</v>
-      </c>
-      <c r="S36">
-        <f>SUM(S10:S35)</f>
-        <v>-70</v>
-      </c>
-    </row>
-    <row r="37" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="L37" t="s">
+      <c r="P37">
+        <f>SUM(P11:P36)</f>
+        <v>210</v>
+      </c>
+      <c r="S37">
+        <f>SUM(S11:S36)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="38" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
         <v>28</v>
       </c>
-      <c r="M37">
-        <f>M36/7</f>
+      <c r="M38">
+        <f>M37/7</f>
         <v>42</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O38" t="s">
         <v>28</v>
       </c>
-      <c r="P37" s="7">
-        <f>P36/7</f>
-        <v>28.571428571428573</v>
-      </c>
-      <c r="S37">
-        <f>S36/8</f>
-        <v>-8.75</v>
-      </c>
-    </row>
-    <row r="38" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="O38" t="s">
+      <c r="P38" s="7">
+        <f>P37/7</f>
+        <v>30</v>
+      </c>
+      <c r="S38">
+        <f>S37/8</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="O39" t="s">
         <v>27</v>
       </c>
-      <c r="P38" s="7">
-        <f>(P36/M36)*100</f>
-        <v>68.027210884353735</v>
-      </c>
-    </row>
-    <row r="40" spans="6:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="3" t="s">
+      <c r="P39" s="7">
+        <f>(P37/M37)*100</f>
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="41" spans="6:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="F41" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F41" t="s">
-        <v>61</v>
-      </c>
-      <c r="P41">
-        <v>19</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>43847</v>
-      </c>
-      <c r="R41" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="42" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P42">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="Q42" s="6">
+        <v>43847</v>
+      </c>
+      <c r="R42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>75</v>
+      </c>
+      <c r="P43">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="6">
         <v>43923</v>
       </c>
-      <c r="R42" t="s">
+      <c r="R43" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="O43" t="s">
-        <v>62</v>
-      </c>
-      <c r="P43">
-        <f>SUM(P41:P42)</f>
-        <v>23</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.2">
       <c r="O44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P44">
-        <f>P43+P36</f>
-        <v>223</v>
+        <f>SUM(P42:P43)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.2">
       <c r="O45" t="s">
-        <v>28</v>
-      </c>
-      <c r="P45" s="9">
-        <f>P44/7</f>
-        <v>31.857142857142858</v>
+        <v>63</v>
+      </c>
+      <c r="P45">
+        <f>P44+P37</f>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="6:19" x14ac:dyDescent="0.2">
       <c r="O46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" s="9">
+        <f>P45/7</f>
+        <v>33.285714285714285</v>
+      </c>
+    </row>
+    <row r="47" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="O47" t="s">
         <v>66</v>
       </c>
-      <c r="P46" s="8">
-        <f>P44/(M36+P43)</f>
-        <v>0.70347003154574128</v>
-      </c>
-    </row>
-    <row r="47" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="P47" s="8"/>
+      <c r="P47" s="8">
+        <f>P45/(M37+P44)</f>
+        <v>0.73501577287066244</v>
+      </c>
+    </row>
+    <row r="48" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="P48" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
